--- a/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
+++ b/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C4B0C6-343F-4D8C-BAE8-49D6824CC0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2475BDF-AD60-4F8C-B722-FD8C811058A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,14 +391,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F3A058-089E-4787-9A4C-F2B2EC617069}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="X8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="6" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="14" width="18.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="20" width="17.33203125" customWidth="1"/>
+    <col min="21" max="24" width="19.5546875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="29" width="15.6640625" customWidth="1"/>
+    <col min="30" max="34" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+    </row>
+    <row r="2" spans="1:58" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+    </row>
+    <row r="3" spans="1:58" s="4" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:58" s="4" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:58" s="4" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:58" s="4" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:BF1"/>
+    <mergeCell ref="A2:BF2"/>
+    <mergeCell ref="A3:A117"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>